--- a/meta_stra_framwork/result/quick/trade.xlsx
+++ b/meta_stra_framwork/result/quick/trade.xlsx
@@ -786,7 +786,7 @@
         <v>114</v>
       </c>
       <c r="G2">
-        <v>15940460664575</v>
+        <v>15942612523865</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>14.967</v>
       </c>
       <c r="L2">
-        <v>15940461876798</v>
+        <v>15942613828024</v>
       </c>
       <c r="M2">
         <v>1306274.2443168</v>
@@ -827,7 +827,7 @@
         <v>114</v>
       </c>
       <c r="G3">
-        <v>15940460664576</v>
+        <v>15942612523866</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>90.345</v>
       </c>
       <c r="L3">
-        <v>15940461876981</v>
+        <v>15942613828207</v>
       </c>
       <c r="M3">
         <v>1639215.173988</v>
@@ -868,7 +868,7 @@
         <v>114</v>
       </c>
       <c r="G4">
-        <v>15940460664577</v>
+        <v>15942612523867</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>13.607</v>
       </c>
       <c r="L4">
-        <v>15940461878188</v>
+        <v>15942613829414</v>
       </c>
       <c r="M4">
         <v>1639214.461632</v>
@@ -909,7 +909,7 @@
         <v>114</v>
       </c>
       <c r="G5">
-        <v>15940460664578</v>
+        <v>15942612523868</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>94.807</v>
       </c>
       <c r="L5">
-        <v>15940461878278</v>
+        <v>15942613829504</v>
       </c>
       <c r="M5">
         <v>835594.3243680001</v>
@@ -950,7 +950,7 @@
         <v>114</v>
       </c>
       <c r="G6">
-        <v>15940460664579</v>
+        <v>15942612523869</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>15.518</v>
       </c>
       <c r="L6">
-        <v>15940461878819</v>
+        <v>15942613830045</v>
       </c>
       <c r="M6">
         <v>835597.5883992</v>
@@ -991,7 +991,7 @@
         <v>114</v>
       </c>
       <c r="G7">
-        <v>15940460664580</v>
+        <v>15942612523870</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>94.247</v>
       </c>
       <c r="L7">
-        <v>15940461878866</v>
+        <v>15942613830092</v>
       </c>
       <c r="M7">
         <v>425951.653392</v>
@@ -1032,7 +1032,7 @@
         <v>114</v>
       </c>
       <c r="G8">
-        <v>15940460664581</v>
+        <v>15942612523871</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>15.198</v>
       </c>
       <c r="L8">
-        <v>15940461879148</v>
+        <v>15942613830374</v>
       </c>
       <c r="M8">
         <v>425950.8978144</v>
@@ -1073,7 +1073,7 @@
         <v>114</v>
       </c>
       <c r="G9">
-        <v>15940460664582</v>
+        <v>15942612523872</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>95.688</v>
       </c>
       <c r="L9">
-        <v>15940461879173</v>
+        <v>15942613830399</v>
       </c>
       <c r="M9">
         <v>217127.1461184</v>
@@ -1114,7 +1114,7 @@
         <v>114</v>
       </c>
       <c r="G10">
-        <v>15940460664583</v>
+        <v>15942612523873</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>15.328</v>
       </c>
       <c r="L10">
-        <v>15940461879317</v>
+        <v>15942613830543</v>
       </c>
       <c r="M10">
         <v>217130.4053472</v>
@@ -1155,7 +1155,7 @@
         <v>114</v>
       </c>
       <c r="G11">
-        <v>15940460664584</v>
+        <v>15942612523874</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>15.438</v>
       </c>
       <c r="L11">
-        <v>15940461879390</v>
+        <v>15942613830616</v>
       </c>
       <c r="M11">
         <v>110684.7114984</v>
@@ -1196,7 +1196,7 @@
         <v>114</v>
       </c>
       <c r="G12">
-        <v>15940460664585</v>
+        <v>15942612523875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>100.78</v>
       </c>
       <c r="L12">
-        <v>15940461879403</v>
+        <v>15942613830629</v>
       </c>
       <c r="M12">
         <v>110681.0280576</v>
@@ -1237,7 +1237,7 @@
         <v>114</v>
       </c>
       <c r="G13">
-        <v>15940460664586</v>
+        <v>15942612523876</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>15.358</v>
       </c>
       <c r="L13">
-        <v>15940461879441</v>
+        <v>15942613830667</v>
       </c>
       <c r="M13">
         <v>56422.869336</v>
@@ -1278,7 +1278,7 @@
         <v>114</v>
       </c>
       <c r="G14">
-        <v>15940460664587</v>
+        <v>15942612523877</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>98.149</v>
       </c>
       <c r="L14">
-        <v>15940461879449</v>
+        <v>15942613830675</v>
       </c>
       <c r="M14">
         <v>56416.07394</v>
@@ -1319,7 +1319,7 @@
         <v>114</v>
       </c>
       <c r="G15">
-        <v>15940460664588</v>
+        <v>15942612523878</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>14.917</v>
       </c>
       <c r="L15">
-        <v>15940461879470</v>
+        <v>15942613830696</v>
       </c>
       <c r="M15">
         <v>28763.2400328</v>
@@ -1360,7 +1360,7 @@
         <v>114</v>
       </c>
       <c r="G16">
-        <v>15940460664589</v>
+        <v>15942612523879</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>102.351</v>
       </c>
       <c r="L16">
-        <v>15940461879475</v>
+        <v>15942613830701</v>
       </c>
       <c r="M16">
         <v>28756.579104</v>
@@ -1401,7 +1401,7 @@
         <v>114</v>
       </c>
       <c r="G17">
-        <v>15940460664590</v>
+        <v>15942612523880</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>99.66</v>
       </c>
       <c r="L17">
-        <v>15940461879478</v>
+        <v>15942613830704</v>
       </c>
       <c r="M17">
         <v>14661.9505116</v>
@@ -1442,7 +1442,7 @@
         <v>114</v>
       </c>
       <c r="G18">
-        <v>15940460664591</v>
+        <v>15942612523881</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>15.118</v>
       </c>
       <c r="L18">
-        <v>15940461879489</v>
+        <v>15942613830715</v>
       </c>
       <c r="M18">
         <v>14664.02835</v>
@@ -1483,7 +1483,7 @@
         <v>114</v>
       </c>
       <c r="G19">
-        <v>15940460664592</v>
+        <v>15942612523882</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>97.869</v>
       </c>
       <c r="L19">
-        <v>15940461879492</v>
+        <v>15942613830718</v>
       </c>
       <c r="M19">
         <v>7469.355211200001</v>
@@ -1524,7 +1524,7 @@
         <v>114</v>
       </c>
       <c r="G20">
-        <v>15940460664593</v>
+        <v>15942612523883</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>15.088</v>
       </c>
       <c r="L20">
-        <v>15940461879499</v>
+        <v>15942613830725</v>
       </c>
       <c r="M20">
         <v>7474.9708176</v>
@@ -1565,7 +1565,7 @@
         <v>114</v>
       </c>
       <c r="G21">
-        <v>15940460664594</v>
+        <v>15942612523884</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>95.648</v>
       </c>
       <c r="L21">
-        <v>15940461879501</v>
+        <v>15942613830727</v>
       </c>
       <c r="M21">
         <v>3810.608352</v>
@@ -1606,7 +1606,7 @@
         <v>114</v>
       </c>
       <c r="G22">
-        <v>15940460664595</v>
+        <v>15942612523885</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>15.668</v>
       </c>
       <c r="L22">
-        <v>15940461879506</v>
+        <v>15942613830732</v>
       </c>
       <c r="M22">
         <v>3811.6696824</v>
@@ -1647,7 +1647,7 @@
         <v>114</v>
       </c>
       <c r="G23">
-        <v>15940460664596</v>
+        <v>15942612523886</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>97.929</v>
       </c>
       <c r="L23">
-        <v>15940461879508</v>
+        <v>15942613830734</v>
       </c>
       <c r="M23">
         <v>1942.9101696</v>
@@ -1688,7 +1688,7 @@
         <v>114</v>
       </c>
       <c r="G24">
-        <v>15940460664597</v>
+        <v>15942612523887</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>15.758</v>
       </c>
       <c r="L24">
-        <v>15940461879511</v>
+        <v>15942613830737</v>
       </c>
       <c r="M24">
         <v>1943.89146</v>
@@ -1729,7 +1729,7 @@
         <v>114</v>
       </c>
       <c r="G25">
-        <v>15940460664598</v>
+        <v>15942612523888</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>16.818</v>
       </c>
       <c r="L25">
-        <v>15940461879514</v>
+        <v>15942613830740</v>
       </c>
       <c r="M25">
         <v>990.2676863999999</v>
@@ -1770,7 +1770,7 @@
         <v>114</v>
       </c>
       <c r="G26">
-        <v>15940460664599</v>
+        <v>15942612523889</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>105.973</v>
       </c>
       <c r="L26">
-        <v>15940461879517</v>
+        <v>15942613830743</v>
       </c>
       <c r="M26">
         <v>983.4290688</v>
@@ -1811,7 +1811,7 @@
         <v>114</v>
       </c>
       <c r="G27">
-        <v>15940460664600</v>
+        <v>15942612523890</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>116.51</v>
       </c>
       <c r="L27">
-        <v>15940461879519</v>
+        <v>15942613830745</v>
       </c>
       <c r="M27">
         <v>503.3232</v>
@@ -1852,7 +1852,7 @@
         <v>114</v>
       </c>
       <c r="G28">
-        <v>15940460664601</v>
+        <v>15942612523891</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>17.929</v>
       </c>
       <c r="L28">
-        <v>15940461879521</v>
+        <v>15942613830747</v>
       </c>
       <c r="M28">
         <v>507.7481472</v>
@@ -1893,7 +1893,7 @@
         <v>114</v>
       </c>
       <c r="G29">
-        <v>15940460664602</v>
+        <v>15942612523892</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>123.852</v>
       </c>
       <c r="L29">
-        <v>15940461879523</v>
+        <v>15942613830749</v>
       </c>
       <c r="M29">
         <v>257.6119416</v>
@@ -1934,7 +1934,7 @@
         <v>114</v>
       </c>
       <c r="G30">
-        <v>15940460664603</v>
+        <v>15942612523893</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>18.009</v>
       </c>
       <c r="L30">
-        <v>15940461879525</v>
+        <v>15942613830751</v>
       </c>
       <c r="M30">
         <v>259.3296</v>
@@ -1975,7 +1975,7 @@
         <v>114</v>
       </c>
       <c r="G31">
-        <v>15940460664604</v>
+        <v>15942612523894</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>120.06</v>
       </c>
       <c r="L31">
-        <v>15940461879527</v>
+        <v>15942613830753</v>
       </c>
       <c r="M31">
         <v>124.8624</v>
@@ -2016,7 +2016,7 @@
         <v>114</v>
       </c>
       <c r="G32">
-        <v>15940460664605</v>
+        <v>15942612523895</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>19.8</v>
       </c>
       <c r="L32">
-        <v>15940461879529</v>
+        <v>15942613830755</v>
       </c>
       <c r="M32">
         <v>133.056</v>
@@ -2057,7 +2057,7 @@
         <v>114</v>
       </c>
       <c r="G33">
-        <v>15940460664606</v>
+        <v>15942612523896</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>16.548</v>
       </c>
       <c r="L33">
-        <v>15940461879540</v>
+        <v>15942613830766</v>
       </c>
       <c r="M33">
         <v>13642.393788</v>
@@ -2098,7 +2098,7 @@
         <v>114</v>
       </c>
       <c r="G34">
-        <v>15940460664607</v>
+        <v>15942612523897</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>132</v>
       </c>
       <c r="L34">
-        <v>15940461879543</v>
+        <v>15942613830769</v>
       </c>
       <c r="M34">
         <v>13632.96</v>
@@ -2139,7 +2139,7 @@
         <v>114</v>
       </c>
       <c r="G35">
-        <v>15940460664608</v>
+        <v>15942612523898</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>16.308</v>
       </c>
       <c r="L35">
-        <v>15940461879549</v>
+        <v>15942613830775</v>
       </c>
       <c r="M35">
         <v>6957.709116000002</v>
@@ -2180,7 +2180,7 @@
         <v>114</v>
       </c>
       <c r="G36">
-        <v>15940460664609</v>
+        <v>15942612523899</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>129.665</v>
       </c>
       <c r="L36">
-        <v>15940461879552</v>
+        <v>15942613830778</v>
       </c>
       <c r="M36">
         <v>6950.03328</v>
@@ -2221,7 +2221,7 @@
         <v>114</v>
       </c>
       <c r="G37">
-        <v>15940460664610</v>
+        <v>15942612523900</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>16.658</v>
       </c>
       <c r="L37">
-        <v>15940461879556</v>
+        <v>15942613830782</v>
       </c>
       <c r="M37">
         <v>3547.556892</v>
@@ -2262,7 +2262,7 @@
         <v>114</v>
       </c>
       <c r="G38">
-        <v>15940460664611</v>
+        <v>15942612523901</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>118.059</v>
       </c>
       <c r="L38">
-        <v>15940461879559</v>
+        <v>15942613830785</v>
       </c>
       <c r="M38">
         <v>3541.77</v>
@@ -2303,7 +2303,7 @@
         <v>114</v>
       </c>
       <c r="G39">
-        <v>15940460664612</v>
+        <v>15942612523902</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>122.061</v>
       </c>
       <c r="L39">
-        <v>15940461879561</v>
+        <v>15942613830787</v>
       </c>
       <c r="M39">
         <v>1806.5028</v>
@@ -2344,7 +2344,7 @@
         <v>114</v>
       </c>
       <c r="G40">
-        <v>15940460664613</v>
+        <v>15942612523903</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>16.938</v>
       </c>
       <c r="L40">
-        <v>15940461879564</v>
+        <v>15942613830790</v>
       </c>
       <c r="M40">
         <v>1810.3831392</v>
@@ -2385,7 +2385,7 @@
         <v>114</v>
       </c>
       <c r="G41">
-        <v>15940460664614</v>
+        <v>15942612523904</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>133.937</v>
       </c>
       <c r="L41">
-        <v>15940461879566</v>
+        <v>15942613830792</v>
       </c>
       <c r="M41">
         <v>921.4861128000001</v>
@@ -2426,7 +2426,7 @@
         <v>114</v>
       </c>
       <c r="G42">
-        <v>15940460664615</v>
+        <v>15942612523905</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>16.308</v>
       </c>
       <c r="L42">
-        <v>15940461879569</v>
+        <v>15942613830795</v>
       </c>
       <c r="M42">
         <v>923.693616</v>
@@ -2467,7 +2467,7 @@
         <v>114</v>
       </c>
       <c r="G43">
-        <v>15940460664616</v>
+        <v>15942612523906</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>162.01</v>
       </c>
       <c r="L43">
-        <v>15940461879571</v>
+        <v>15942613830797</v>
       </c>
       <c r="M43">
         <v>466.5888</v>
@@ -2508,7 +2508,7 @@
         <v>114</v>
       </c>
       <c r="G44">
-        <v>15940460664617</v>
+        <v>15942612523907</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>16.668</v>
       </c>
       <c r="L44">
-        <v>15940461879574</v>
+        <v>15942613830800</v>
       </c>
       <c r="M44">
         <v>470.7136392</v>
@@ -2549,7 +2549,7 @@
         <v>114</v>
       </c>
       <c r="G45">
-        <v>15940460664618</v>
+        <v>15942612523908</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>16.148</v>
       </c>
       <c r="L45">
-        <v>15940461879576</v>
+        <v>15942613830802</v>
       </c>
       <c r="M45">
         <v>241.5751272</v>
@@ -2590,7 +2590,7 @@
         <v>114</v>
       </c>
       <c r="G46">
-        <v>15940460664619</v>
+        <v>15942612523909</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>163.092</v>
       </c>
       <c r="L46">
-        <v>15940461879578</v>
+        <v>15942613830804</v>
       </c>
       <c r="M46">
         <v>234.8517672</v>
@@ -2631,7 +2631,7 @@
         <v>114</v>
       </c>
       <c r="G47">
-        <v>15940460664620</v>
+        <v>15942612523910</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>16.708</v>
       </c>
       <c r="L47">
-        <v>15940461879580</v>
+        <v>15942613830806</v>
       </c>
       <c r="M47">
         <v>124.310124</v>
@@ -2672,7 +2672,7 @@
         <v>114</v>
       </c>
       <c r="G48">
-        <v>15940460664621</v>
+        <v>15942612523911</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>150.505</v>
       </c>
       <c r="L48">
-        <v>15940461879582</v>
+        <v>15942613830808</v>
       </c>
       <c r="M48">
         <v>120.404172</v>
@@ -2713,7 +2713,7 @@
         <v>115</v>
       </c>
       <c r="G49">
-        <v>15940460664622</v>
+        <v>15942612523912</v>
       </c>
       <c r="H49">
         <v>11079917.3889405</v>
@@ -2728,7 +2728,7 @@
         <v>244.768</v>
       </c>
       <c r="L49">
-        <v>15940461879583</v>
+        <v>15942613830809</v>
       </c>
       <c r="M49">
         <v>19943851.3000929</v>
@@ -2754,7 +2754,7 @@
         <v>114</v>
       </c>
       <c r="G50">
-        <v>15940460664623</v>
+        <v>15942612523913</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>16.628</v>
       </c>
       <c r="L50">
-        <v>15940461880888</v>
+        <v>15942613832114</v>
       </c>
       <c r="M50">
         <v>2167170.3028296</v>
@@ -2795,7 +2795,7 @@
         <v>114</v>
       </c>
       <c r="G51">
-        <v>15940460664624</v>
+        <v>15942612523914</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>16.488</v>
       </c>
       <c r="L51">
-        <v>15940461881882</v>
+        <v>15942613833108</v>
       </c>
       <c r="M51">
         <v>1635947.3440896</v>
@@ -2836,7 +2836,7 @@
         <v>114</v>
       </c>
       <c r="G52">
-        <v>15940460664625</v>
+        <v>15942612523915</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>15.508</v>
       </c>
       <c r="L52">
-        <v>15940461882680</v>
+        <v>15942613833906</v>
       </c>
       <c r="M52">
         <v>1234940.44164</v>
@@ -2877,7 +2877,7 @@
         <v>114</v>
       </c>
       <c r="G53">
-        <v>15940460664626</v>
+        <v>15942612523916</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>16.988</v>
       </c>
       <c r="L53">
-        <v>15940461883231</v>
+        <v>15942613834457</v>
       </c>
       <c r="M53">
         <v>932227.7593392001</v>
@@ -2918,7 +2918,7 @@
         <v>114</v>
       </c>
       <c r="G54">
-        <v>15940460664627</v>
+        <v>15942612523917</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>16.688</v>
       </c>
       <c r="L54">
-        <v>15940461883655</v>
+        <v>15942613834881</v>
       </c>
       <c r="M54">
         <v>703717.9263216</v>
@@ -2959,7 +2959,7 @@
         <v>114</v>
       </c>
       <c r="G55">
-        <v>15940460664628</v>
+        <v>15942612523918</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>16.488</v>
       </c>
       <c r="L55">
-        <v>15940461883980</v>
+        <v>15942613835206</v>
       </c>
       <c r="M55">
         <v>531220.7544384002</v>
@@ -3000,7 +3000,7 @@
         <v>114</v>
       </c>
       <c r="G56">
-        <v>15940460664629</v>
+        <v>15942612523919</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>16.518</v>
       </c>
       <c r="L56">
-        <v>15940461884224</v>
+        <v>15942613835450</v>
       </c>
       <c r="M56">
         <v>401007.7300632</v>
@@ -3041,7 +3041,7 @@
         <v>114</v>
       </c>
       <c r="G57">
-        <v>15940460664630</v>
+        <v>15942612523920</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>15.928</v>
       </c>
       <c r="L57">
-        <v>15940461884416</v>
+        <v>15942613835642</v>
       </c>
       <c r="M57">
         <v>302711.5169184</v>
@@ -3082,7 +3082,7 @@
         <v>115</v>
       </c>
       <c r="G58">
-        <v>15940460664631</v>
+        <v>15942612523921</v>
       </c>
       <c r="H58">
         <v>16914034.0795364</v>
@@ -3097,7 +3097,7 @@
         <v>15.632</v>
       </c>
       <c r="L58">
-        <v>15940461884417</v>
+        <v>15942613835643</v>
       </c>
       <c r="M58">
         <v>30445261.34316552</v>
@@ -3123,7 +3123,7 @@
         <v>114</v>
       </c>
       <c r="G59">
-        <v>15940460664632</v>
+        <v>15942612523922</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>13.387</v>
       </c>
       <c r="L59">
-        <v>15940461885299</v>
+        <v>15942613836525</v>
       </c>
       <c r="M59">
         <v>1178900.4612528</v>
@@ -3164,7 +3164,7 @@
         <v>114</v>
       </c>
       <c r="G60">
-        <v>15940460664633</v>
+        <v>15942612523923</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>226.913</v>
       </c>
       <c r="L60">
-        <v>15940461885353</v>
+        <v>15942613836579</v>
       </c>
       <c r="M60">
         <v>1178896.801824</v>
@@ -3205,7 +3205,7 @@
         <v>115</v>
       </c>
       <c r="G61">
-        <v>15940460664634</v>
+        <v>15942612523924</v>
       </c>
       <c r="H61">
         <v>1399244.325588831</v>
@@ -3220,7 +3220,7 @@
         <v>12.711</v>
       </c>
       <c r="L61">
-        <v>15940461885354</v>
+        <v>15942613836580</v>
       </c>
       <c r="M61">
         <v>2518639.786059896</v>
@@ -3246,7 +3246,7 @@
         <v>115</v>
       </c>
       <c r="G62">
-        <v>15940460664635</v>
+        <v>15942612523925</v>
       </c>
       <c r="H62">
         <v>1399239.982189917</v>
@@ -3261,7 +3261,7 @@
         <v>215.46</v>
       </c>
       <c r="L62">
-        <v>15940461885355</v>
+        <v>15942613836581</v>
       </c>
       <c r="M62">
         <v>2518631.96794185</v>
@@ -3287,7 +3287,7 @@
         <v>114</v>
       </c>
       <c r="G63">
-        <v>15940460664636</v>
+        <v>15942612523926</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>11.226</v>
       </c>
       <c r="L63">
-        <v>15940461886398</v>
+        <v>15942613837624</v>
       </c>
       <c r="M63">
         <v>1168700.9512464</v>
@@ -3328,7 +3328,7 @@
         <v>114</v>
       </c>
       <c r="G64">
-        <v>15940460664637</v>
+        <v>15942612523927</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>94.497</v>
       </c>
       <c r="L64">
-        <v>15940461886524</v>
+        <v>15942613837750</v>
       </c>
       <c r="M64">
         <v>1168696.320132</v>
@@ -3369,7 +3369,7 @@
         <v>114</v>
       </c>
       <c r="G65">
-        <v>15940460664638</v>
+        <v>15942612523928</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>9.675000000000001</v>
       </c>
       <c r="L65">
-        <v>15940461889557</v>
+        <v>15942613840783</v>
       </c>
       <c r="M65">
         <v>2933155.3303428</v>
@@ -3410,7 +3410,7 @@
         <v>115</v>
       </c>
       <c r="G66">
-        <v>15940460664639</v>
+        <v>15942612523929</v>
       </c>
       <c r="H66">
         <v>1257803.309737</v>
@@ -3425,7 +3425,7 @@
         <v>9.664999999999999</v>
       </c>
       <c r="L66">
-        <v>15940461889558</v>
+        <v>15942613840784</v>
       </c>
       <c r="M66">
         <v>2264045.9575266</v>
@@ -3451,7 +3451,7 @@
         <v>115</v>
       </c>
       <c r="G67">
-        <v>15940460664640</v>
+        <v>15942612523930</v>
       </c>
       <c r="H67">
         <v>4011254.9582055</v>
@@ -3466,7 +3466,7 @@
         <v>10.585</v>
       </c>
       <c r="L67">
-        <v>15940461889559</v>
+        <v>15942613840785</v>
       </c>
       <c r="M67">
         <v>7220258.924769899</v>
@@ -3492,7 +3492,7 @@
         <v>114</v>
       </c>
       <c r="G68">
-        <v>15940460664641</v>
+        <v>15942612523931</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>10.505</v>
       </c>
       <c r="L68">
-        <v>15940461892649</v>
+        <v>15942613843875</v>
       </c>
       <c r="M68">
         <v>3244740.59952</v>
@@ -3533,7 +3533,7 @@
         <v>114</v>
       </c>
       <c r="G69">
-        <v>15940460664642</v>
+        <v>15942612523932</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>84.032</v>
       </c>
       <c r="L69">
-        <v>15940461893037</v>
+        <v>15942613844263</v>
       </c>
       <c r="M69">
         <v>3244737.5067744</v>
@@ -3574,7 +3574,7 @@
         <v>114</v>
       </c>
       <c r="G70">
-        <v>15940460664643</v>
+        <v>15942612523933</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>76.38800000000001</v>
       </c>
       <c r="L70">
-        <v>15940461893257</v>
+        <v>15942613844483</v>
       </c>
       <c r="M70">
         <v>1668091.633002</v>
@@ -3615,7 +3615,7 @@
         <v>114</v>
       </c>
       <c r="G71">
-        <v>15940460664644</v>
+        <v>15942612523934</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>8.814</v>
       </c>
       <c r="L71">
-        <v>15940461895151</v>
+        <v>15942613846377</v>
       </c>
       <c r="M71">
         <v>1668095.1195444</v>
@@ -3656,7 +3656,7 @@
         <v>114</v>
       </c>
       <c r="G72">
-        <v>15940460664645</v>
+        <v>15942612523935</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>76.008</v>
       </c>
       <c r="L72">
-        <v>15940461895265</v>
+        <v>15942613846491</v>
       </c>
       <c r="M72">
         <v>850316.5297920002</v>
@@ -3697,7 +3697,7 @@
         <v>114</v>
       </c>
       <c r="G73">
-        <v>15940460664646</v>
+        <v>15942612523936</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>8.794</v>
       </c>
       <c r="L73">
-        <v>15940461896234</v>
+        <v>15942613847460</v>
       </c>
       <c r="M73">
         <v>850320.2028276001</v>
@@ -3738,7 +3738,7 @@
         <v>114</v>
       </c>
       <c r="G74">
-        <v>15940460664647</v>
+        <v>15942612523937</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>8.784000000000001</v>
       </c>
       <c r="L74">
-        <v>15940461896729</v>
+        <v>15942613847955</v>
       </c>
       <c r="M74">
         <v>433456.2374088001</v>
@@ -3779,7 +3779,7 @@
         <v>114</v>
       </c>
       <c r="G75">
-        <v>15940460664648</v>
+        <v>15942612523938</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>76.83799999999999</v>
       </c>
       <c r="L75">
-        <v>15940461896787</v>
+        <v>15942613848013</v>
       </c>
       <c r="M75">
         <v>433454.635008</v>
@@ -3820,7 +3820,7 @@
         <v>114</v>
       </c>
       <c r="G76">
-        <v>15940460664649</v>
+        <v>15942612523939</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>75.788</v>
       </c>
       <c r="L76">
-        <v>15940461896818</v>
+        <v>15942613848044</v>
       </c>
       <c r="M76">
         <v>220955.00229</v>
@@ -3861,7 +3861,7 @@
         <v>114</v>
       </c>
       <c r="G77">
-        <v>15940460664650</v>
+        <v>15942612523940</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>8.744</v>
       </c>
       <c r="L77">
-        <v>15940461897073</v>
+        <v>15942613848299</v>
       </c>
       <c r="M77">
         <v>220956.9384576</v>
@@ -3902,7 +3902,7 @@
         <v>114</v>
       </c>
       <c r="G78">
-        <v>15940460664651</v>
+        <v>15942612523941</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>8.944000000000001</v>
       </c>
       <c r="L78">
-        <v>15940461897201</v>
+        <v>15942613848427</v>
       </c>
       <c r="M78">
         <v>112634.4907008</v>
@@ -3943,7 +3943,7 @@
         <v>114</v>
       </c>
       <c r="G79">
-        <v>15940460664652</v>
+        <v>15942612523942</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>78.139</v>
       </c>
       <c r="L79">
-        <v>15940461897217</v>
+        <v>15942613848443</v>
       </c>
       <c r="M79">
         <v>112632.752232</v>
@@ -3984,7 +3984,7 @@
         <v>114</v>
       </c>
       <c r="G80">
-        <v>15940460664653</v>
+        <v>15942612523943</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>8.994</v>
       </c>
       <c r="L80">
-        <v>15940461897282</v>
+        <v>15942613848508</v>
       </c>
       <c r="M80">
         <v>57416.5387224</v>
@@ -4025,7 +4025,7 @@
         <v>114</v>
       </c>
       <c r="G81">
-        <v>15940460664654</v>
+        <v>15942612523944</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>77.289</v>
       </c>
       <c r="L81">
-        <v>15940461897291</v>
+        <v>15942613848517</v>
       </c>
       <c r="M81">
         <v>57416.17374</v>
@@ -4066,7 +4066,7 @@
         <v>114</v>
       </c>
       <c r="G82">
-        <v>15940460664655</v>
+        <v>15942612523945</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>66.693</v>
       </c>
       <c r="L82">
-        <v>15940461897298</v>
+        <v>15942613848524</v>
       </c>
       <c r="M82">
         <v>29265.033204</v>
@@ -4107,7 +4107,7 @@
         <v>114</v>
       </c>
       <c r="G83">
-        <v>15940460664656</v>
+        <v>15942612523946</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>9.154999999999999</v>
       </c>
       <c r="L83">
-        <v>15940461897332</v>
+        <v>15942613848558</v>
       </c>
       <c r="M83">
         <v>29268.27482400001</v>
@@ -4148,7 +4148,7 @@
         <v>114</v>
       </c>
       <c r="G84">
-        <v>15940460664657</v>
+        <v>15942612523947</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>9.455</v>
       </c>
       <c r="L84">
-        <v>15940461897350</v>
+        <v>15942613848576</v>
       </c>
       <c r="M84">
         <v>14920.312428</v>
@@ -4189,7 +4189,7 @@
         <v>114</v>
       </c>
       <c r="G85">
-        <v>15940460664658</v>
+        <v>15942612523948</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>66.82299999999999</v>
       </c>
       <c r="L85">
-        <v>15940461897354</v>
+        <v>15942613848580</v>
       </c>
       <c r="M85">
         <v>14920.3276356</v>
@@ -4230,7 +4230,7 @@
         <v>114</v>
       </c>
       <c r="G86">
-        <v>15940460664659</v>
+        <v>15942612523949</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>9.335000000000001</v>
       </c>
       <c r="L86">
-        <v>15940461897364</v>
+        <v>15942613848590</v>
       </c>
       <c r="M86">
         <v>7605.885042000001</v>
@@ -4271,7 +4271,7 @@
         <v>114</v>
       </c>
       <c r="G87">
-        <v>15940460664660</v>
+        <v>15942612523950</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>55.888</v>
       </c>
       <c r="L87">
-        <v>15940461897367</v>
+        <v>15942613848593</v>
       </c>
       <c r="M87">
         <v>7605.2295144</v>
@@ -4312,7 +4312,7 @@
         <v>114</v>
       </c>
       <c r="G88">
-        <v>15940460664661</v>
+        <v>15942612523951</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>56.278</v>
       </c>
       <c r="L88">
-        <v>15940461897369</v>
+        <v>15942613848595</v>
       </c>
       <c r="M88">
         <v>3876.43725</v>
@@ -4353,7 +4353,7 @@
         <v>114</v>
       </c>
       <c r="G89">
-        <v>15940460664662</v>
+        <v>15942612523952</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>9.414999999999999</v>
       </c>
       <c r="L89">
-        <v>15940461897375</v>
+        <v>15942613848601</v>
       </c>
       <c r="M89">
         <v>3877.3521072</v>
@@ -4394,7 +4394,7 @@
         <v>114</v>
       </c>
       <c r="G90">
-        <v>15940460664663</v>
+        <v>15942612523953</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>55.738</v>
       </c>
       <c r="L90">
-        <v>15940461897377</v>
+        <v>15942613848603</v>
       </c>
       <c r="M90">
         <v>1975.3495812</v>
@@ -4435,7 +4435,7 @@
         <v>114</v>
       </c>
       <c r="G91">
-        <v>15940460664664</v>
+        <v>15942612523954</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>9.404999999999999</v>
       </c>
       <c r="L91">
-        <v>15940461897381</v>
+        <v>15942613848607</v>
       </c>
       <c r="M91">
         <v>1976.491752</v>
@@ -4476,7 +4476,7 @@
         <v>114</v>
       </c>
       <c r="G92">
-        <v>15940460664665</v>
+        <v>15942612523955</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>9.455</v>
       </c>
       <c r="L92">
-        <v>15940461897384</v>
+        <v>15942613848610</v>
       </c>
       <c r="M92">
         <v>1007.495496</v>
@@ -4517,7 +4517,7 @@
         <v>114</v>
       </c>
       <c r="G93">
-        <v>15940460664666</v>
+        <v>15942612523956</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>53.737</v>
       </c>
       <c r="L93">
-        <v>15940461897386</v>
+        <v>15942613848612</v>
       </c>
       <c r="M93">
         <v>1005.9539256</v>
@@ -4558,7 +4558,7 @@
         <v>114</v>
       </c>
       <c r="G94">
-        <v>15940460664667</v>
+        <v>15942612523957</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>53.937</v>
       </c>
       <c r="L94">
-        <v>15940461897388</v>
+        <v>15942613848614</v>
       </c>
       <c r="M94">
         <v>513.4798115999999</v>
@@ -4599,7 +4599,7 @@
         <v>114</v>
       </c>
       <c r="G95">
-        <v>15940460664668</v>
+        <v>15942612523958</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>9.395</v>
       </c>
       <c r="L95">
-        <v>15940461897391</v>
+        <v>15942613848617</v>
       </c>
       <c r="M95">
         <v>514.0777104</v>
@@ -4640,7 +4640,7 @@
         <v>114</v>
       </c>
       <c r="G96">
-        <v>15940460664669</v>
+        <v>15942612523959</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>9.574999999999999</v>
       </c>
       <c r="L96">
-        <v>15940461897394</v>
+        <v>15942613848620</v>
       </c>
       <c r="M96">
         <v>261.9661176</v>
@@ -4681,7 +4681,7 @@
         <v>114</v>
       </c>
       <c r="G97">
-        <v>15940460664670</v>
+        <v>15942612523960</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>54.047</v>
       </c>
       <c r="L97">
-        <v>15940461897396</v>
+        <v>15942613848622</v>
       </c>
       <c r="M97">
         <v>259.425648</v>
@@ -4722,7 +4722,7 @@
         <v>114</v>
       </c>
       <c r="G98">
-        <v>15940460664671</v>
+        <v>15942612523961</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>9.515000000000001</v>
       </c>
       <c r="L98">
-        <v>15940461897398</v>
+        <v>15942613848624</v>
       </c>
       <c r="M98">
         <v>134.7289308</v>
@@ -4763,7 +4763,7 @@
         <v>114</v>
       </c>
       <c r="G99">
-        <v>15940460664672</v>
+        <v>15942612523962</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>53.607</v>
       </c>
       <c r="L99">
-        <v>15940461897400</v>
+        <v>15942613848626</v>
       </c>
       <c r="M99">
         <v>132.9448392</v>
@@ -4804,7 +4804,7 @@
         <v>114</v>
       </c>
       <c r="G100">
-        <v>15940460664673</v>
+        <v>15942612523963</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>9.345000000000001</v>
       </c>
       <c r="L100">
-        <v>15940461897407</v>
+        <v>15942613848633</v>
       </c>
       <c r="M100">
         <v>4756.0632432</v>
@@ -4845,7 +4845,7 @@
         <v>114</v>
       </c>
       <c r="G101">
-        <v>15940460664674</v>
+        <v>15942612523964</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>9.404999999999999</v>
       </c>
       <c r="L101">
-        <v>15940461897413</v>
+        <v>15942613848639</v>
       </c>
       <c r="M101">
         <v>3590.338272</v>
@@ -4886,7 +4886,7 @@
         <v>114</v>
       </c>
       <c r="G102">
-        <v>15940460664675</v>
+        <v>15942612523965</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>9.475</v>
       </c>
       <c r="L102">
-        <v>15940461897418</v>
+        <v>15942613848644</v>
       </c>
       <c r="M102">
         <v>2709.77421</v>
@@ -4927,7 +4927,7 @@
         <v>114</v>
       </c>
       <c r="G103">
-        <v>15940460664676</v>
+        <v>15942612523966</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>9.595000000000001</v>
       </c>
       <c r="L103">
-        <v>15940461897423</v>
+        <v>15942613848649</v>
       </c>
       <c r="M103">
         <v>2045.610294</v>
@@ -4968,7 +4968,7 @@
         <v>115</v>
       </c>
       <c r="G104">
-        <v>15940460664677</v>
+        <v>15942612523967</v>
       </c>
       <c r="H104">
         <v>10236959.6108744</v>
@@ -4983,7 +4983,7 @@
         <v>10.805</v>
       </c>
       <c r="L104">
-        <v>15940461897424</v>
+        <v>15942613848650</v>
       </c>
       <c r="M104">
         <v>18426527.29957392</v>
@@ -5009,7 +5009,7 @@
         <v>114</v>
       </c>
       <c r="G105">
-        <v>15940460664678</v>
+        <v>15942612523968</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>11.046</v>
       </c>
       <c r="L105">
-        <v>15940461899240</v>
+        <v>15942613850466</v>
       </c>
       <c r="M105">
         <v>2003776.619616</v>
@@ -5050,7 +5050,7 @@
         <v>114</v>
       </c>
       <c r="G106">
-        <v>15940460664679</v>
+        <v>15942612523969</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>11.156</v>
       </c>
       <c r="L106">
-        <v>15940461900598</v>
+        <v>15942613851824</v>
       </c>
       <c r="M106">
         <v>1512605.832954</v>
@@ -5091,7 +5091,7 @@
         <v>114</v>
       </c>
       <c r="G107">
-        <v>15940460664680</v>
+        <v>15942612523970</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>11.646</v>
       </c>
       <c r="L107">
-        <v>15940461901581</v>
+        <v>15942613852807</v>
       </c>
       <c r="M107">
         <v>1141831.6577136</v>
@@ -5132,7 +5132,7 @@
         <v>114</v>
       </c>
       <c r="G108">
-        <v>15940460664681</v>
+        <v>15942612523971</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>11.706</v>
       </c>
       <c r="L108">
-        <v>15940461902319</v>
+        <v>15942613853545</v>
       </c>
       <c r="M108">
         <v>861943.8765600001</v>
@@ -5173,7 +5173,7 @@
         <v>114</v>
       </c>
       <c r="G109">
-        <v>15940460664682</v>
+        <v>15942612523972</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>11.446</v>
       </c>
       <c r="L109">
-        <v>15940461902889</v>
+        <v>15942613854115</v>
       </c>
       <c r="M109">
         <v>650661.712272</v>
@@ -5214,7 +5214,7 @@
         <v>115</v>
       </c>
       <c r="G110">
-        <v>15940460664683</v>
+        <v>15942612523973</v>
       </c>
       <c r="H110">
         <v>9848716.028574999</v>
@@ -5229,7 +5229,7 @@
         <v>14.443</v>
       </c>
       <c r="L110">
-        <v>15940461902890</v>
+        <v>15942613854116</v>
       </c>
       <c r="M110">
         <v>17727688.851435</v>
@@ -5255,7 +5255,7 @@
         <v>114</v>
       </c>
       <c r="G111">
-        <v>15940460664684</v>
+        <v>15942612523974</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>13.087</v>
       </c>
       <c r="L111">
-        <v>15940461904739</v>
+        <v>15942613855965</v>
       </c>
       <c r="M111">
         <v>2417466.064968</v>
@@ -5296,7 +5296,7 @@
         <v>114</v>
       </c>
       <c r="G112">
-        <v>15940460664685</v>
+        <v>15942612523975</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>13.477</v>
       </c>
       <c r="L112">
-        <v>15940461906095</v>
+        <v>15942613857321</v>
       </c>
       <c r="M112">
         <v>1824890.077044</v>
@@ -5337,7 +5337,7 @@
         <v>114</v>
       </c>
       <c r="G113">
-        <v>15940460664686</v>
+        <v>15942612523976</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>13.407</v>
       </c>
       <c r="L113">
-        <v>15940461907125</v>
+        <v>15942613858351</v>
       </c>
       <c r="M113">
         <v>1377568.456008</v>
@@ -5378,7 +5378,7 @@
         <v>114</v>
       </c>
       <c r="G114">
-        <v>15940460664687</v>
+        <v>15942612523977</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>13.557</v>
       </c>
       <c r="L114">
-        <v>15940461907894</v>
+        <v>15942613859120</v>
       </c>
       <c r="M114">
         <v>1039895.744028</v>
@@ -5419,7 +5419,7 @@
         <v>114</v>
       </c>
       <c r="G115">
-        <v>15940460664688</v>
+        <v>15942612523978</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>14.207</v>
       </c>
       <c r="L115">
-        <v>15940461908449</v>
+        <v>15942613859675</v>
       </c>
       <c r="M115">
         <v>784993.42056</v>
@@ -5460,7 +5460,7 @@
         <v>114</v>
       </c>
       <c r="G116">
-        <v>15940460664689</v>
+        <v>15942612523979</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>14.657</v>
       </c>
       <c r="L116">
-        <v>15940461908855</v>
+        <v>15942613860081</v>
       </c>
       <c r="M116">
         <v>592574.5432020001</v>
@@ -5501,7 +5501,7 @@
         <v>114</v>
       </c>
       <c r="G117">
-        <v>15940460664690</v>
+        <v>15942612523980</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>14.647</v>
       </c>
       <c r="L117">
-        <v>15940461909162</v>
+        <v>15942613860388</v>
       </c>
       <c r="M117">
         <v>447320.9503008</v>
@@ -5542,7 +5542,7 @@
         <v>114</v>
       </c>
       <c r="G118">
-        <v>15940460664691</v>
+        <v>15942612523981</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>14.207</v>
       </c>
       <c r="L118">
-        <v>15940461909402</v>
+        <v>15942613860628</v>
       </c>
       <c r="M118">
         <v>337672.079664</v>
@@ -5583,7 +5583,7 @@
         <v>114</v>
       </c>
       <c r="G119">
-        <v>15940460664692</v>
+        <v>15942612523982</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>14.057</v>
       </c>
       <c r="L119">
-        <v>15940461909586</v>
+        <v>15942613860812</v>
       </c>
       <c r="M119">
         <v>254901.0948540001</v>
@@ -5624,7 +5624,7 @@
         <v>114</v>
       </c>
       <c r="G120">
-        <v>15940460664693</v>
+        <v>15942612523983</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>13.747</v>
       </c>
       <c r="L120">
-        <v>15940461909728</v>
+        <v>15942613860954</v>
       </c>
       <c r="M120">
         <v>192419.8882632</v>
@@ -5665,7 +5665,7 @@
         <v>114</v>
       </c>
       <c r="G121">
-        <v>15940460664694</v>
+        <v>15942612523984</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>10.905</v>
       </c>
       <c r="L121">
-        <v>15940461909863</v>
+        <v>15942613861089</v>
       </c>
       <c r="M121">
         <v>145253.614512</v>
@@ -5706,7 +5706,7 @@
         <v>115</v>
       </c>
       <c r="G122">
-        <v>15940460664695</v>
+        <v>15942612523985</v>
       </c>
       <c r="H122">
         <v>9213333.564732</v>
@@ -5721,7 +5721,7 @@
         <v>10.605</v>
       </c>
       <c r="L122">
-        <v>15940461909864</v>
+        <v>15942613861090</v>
       </c>
       <c r="M122">
         <v>16584000.4165176</v>
@@ -5747,7 +5747,7 @@
         <v>114</v>
       </c>
       <c r="G123">
-        <v>15940460664696</v>
+        <v>15942612523986</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>12.206</v>
       </c>
       <c r="L123">
-        <v>15940461911436</v>
+        <v>15942613862662</v>
       </c>
       <c r="M123">
         <v>1916357.7</v>
@@ -5788,7 +5788,7 @@
         <v>114</v>
       </c>
       <c r="G124">
-        <v>15940460664697</v>
+        <v>15942612523987</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5803,7 +5803,7 @@
         <v>23.482</v>
       </c>
       <c r="L124">
-        <v>15940461912254</v>
+        <v>15942613863480</v>
       </c>
       <c r="M124">
         <v>1916357.5431216</v>
@@ -5829,7 +5829,7 @@
         <v>114</v>
       </c>
       <c r="G125">
-        <v>15940460664698</v>
+        <v>15942612523988</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -5844,7 +5844,7 @@
         <v>12.996</v>
       </c>
       <c r="L125">
-        <v>15940461913008</v>
+        <v>15942613864234</v>
       </c>
       <c r="M125">
         <v>976872.7090584</v>
@@ -5870,7 +5870,7 @@
         <v>114</v>
       </c>
       <c r="G126">
-        <v>15940460664699</v>
+        <v>15942612523989</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>23.022</v>
       </c>
       <c r="L126">
-        <v>15940461913435</v>
+        <v>15942613864661</v>
       </c>
       <c r="M126">
         <v>976872.4425252001</v>
@@ -5911,7 +5911,7 @@
         <v>114</v>
       </c>
       <c r="G127">
-        <v>15940460664700</v>
+        <v>15942612523990</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>23.522</v>
       </c>
       <c r="L127">
-        <v>15940461913649</v>
+        <v>15942613864875</v>
       </c>
       <c r="M127">
         <v>497964.962052</v>
@@ -5952,7 +5952,7 @@
         <v>114</v>
       </c>
       <c r="G128">
-        <v>15940460664701</v>
+        <v>15942612523991</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>12.746</v>
       </c>
       <c r="L128">
-        <v>15940461914042</v>
+        <v>15942613865268</v>
       </c>
       <c r="M128">
         <v>497966.0057736</v>
@@ -5993,7 +5993,7 @@
         <v>114</v>
       </c>
       <c r="G129">
-        <v>15940460664702</v>
+        <v>15942612523992</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>22.041</v>
       </c>
       <c r="L129">
-        <v>15940461914160</v>
+        <v>15942613865386</v>
       </c>
       <c r="M129">
         <v>253840.1982708</v>
@@ -6034,7 +6034,7 @@
         <v>114</v>
       </c>
       <c r="G130">
-        <v>15940460664703</v>
+        <v>15942612523993</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>12.306</v>
       </c>
       <c r="L130">
-        <v>15940461914368</v>
+        <v>15942613865594</v>
       </c>
       <c r="M130">
         <v>253841.41728</v>
@@ -6075,7 +6075,7 @@
         <v>114</v>
       </c>
       <c r="G131">
-        <v>15940460664704</v>
+        <v>15942612523994</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>14.017</v>
       </c>
       <c r="L131">
-        <v>15940461914470</v>
+        <v>15942613865696</v>
       </c>
       <c r="M131">
         <v>139761.8748144</v>
@@ -6116,7 +6116,7 @@
         <v>114</v>
       </c>
       <c r="G132">
-        <v>15940460664705</v>
+        <v>15942612523995</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>18.709</v>
       </c>
       <c r="L132">
-        <v>15940461914547</v>
+        <v>15942613865773</v>
       </c>
       <c r="M132">
         <v>139761.837996</v>
@@ -6157,7 +6157,7 @@
         <v>114</v>
       </c>
       <c r="G133">
-        <v>15940460664706</v>
+        <v>15942612523996</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -6172,7 +6172,7 @@
         <v>14.587</v>
       </c>
       <c r="L133">
-        <v>15940461914598</v>
+        <v>15942613865824</v>
       </c>
       <c r="M133">
         <v>71244.32436</v>
@@ -6198,7 +6198,7 @@
         <v>114</v>
       </c>
       <c r="G134">
-        <v>15940460664707</v>
+        <v>15942612523997</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>16.168</v>
       </c>
       <c r="L134">
-        <v>15940461914644</v>
+        <v>15942613865870</v>
       </c>
       <c r="M134">
         <v>71244.32115840001</v>
@@ -6239,7 +6239,7 @@
         <v>114</v>
       </c>
       <c r="G135">
-        <v>15940460664708</v>
+        <v>15942612523998</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6254,7 +6254,7 @@
         <v>16.298</v>
       </c>
       <c r="L135">
-        <v>15940461914668</v>
+        <v>15942613865894</v>
       </c>
       <c r="M135">
         <v>36317.4824664</v>
@@ -6280,7 +6280,7 @@
         <v>114</v>
       </c>
       <c r="G136">
-        <v>15940460664709</v>
+        <v>15942612523999</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>14.557</v>
       </c>
       <c r="L136">
-        <v>15940461914695</v>
+        <v>15942613865921</v>
       </c>
       <c r="M136">
         <v>36317.48967</v>
@@ -6321,7 +6321,7 @@
         <v>114</v>
       </c>
       <c r="G137">
-        <v>15940460664710</v>
+        <v>15942612524000</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>14.567</v>
       </c>
       <c r="L137">
-        <v>15940461914709</v>
+        <v>15942613865935</v>
       </c>
       <c r="M137">
         <v>18513.2648064</v>
@@ -6362,7 +6362,7 @@
         <v>114</v>
       </c>
       <c r="G138">
-        <v>15940460664711</v>
+        <v>15942612524001</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>16.248</v>
       </c>
       <c r="L138">
-        <v>15940461914723</v>
+        <v>15942613865949</v>
       </c>
       <c r="M138">
         <v>18512.4580032</v>
@@ -6403,7 +6403,7 @@
         <v>114</v>
       </c>
       <c r="G139">
-        <v>15940460664712</v>
+        <v>15942612524002</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>14.687</v>
       </c>
       <c r="L139">
-        <v>15940461914731</v>
+        <v>15942613865957</v>
       </c>
       <c r="M139">
         <v>9437.497190400001</v>
@@ -6444,7 +6444,7 @@
         <v>114</v>
       </c>
       <c r="G140">
-        <v>15940460664713</v>
+        <v>15942612524003</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>16.588</v>
       </c>
       <c r="L140">
-        <v>15940461914739</v>
+        <v>15942613865965</v>
       </c>
       <c r="M140">
         <v>9436.746415199999</v>
@@ -6485,7 +6485,7 @@
         <v>114</v>
       </c>
       <c r="G141">
-        <v>15940460664714</v>
+        <v>15942612524004</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>14.457</v>
       </c>
       <c r="L141">
-        <v>15940461914745</v>
+        <v>15942613865971</v>
       </c>
       <c r="M141">
         <v>4810.207902</v>
@@ -6526,7 +6526,7 @@
         <v>114</v>
       </c>
       <c r="G142">
-        <v>15940460664715</v>
+        <v>15942612524005</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>17.379</v>
       </c>
       <c r="L142">
-        <v>15940461914750</v>
+        <v>15942613865976</v>
       </c>
       <c r="M142">
         <v>4810.420008000001</v>
@@ -6567,7 +6567,7 @@
         <v>114</v>
       </c>
       <c r="G143">
-        <v>15940460664716</v>
+        <v>15942612524006</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>17.089</v>
       </c>
       <c r="L143">
-        <v>15940461914753</v>
+        <v>15942613865979</v>
       </c>
       <c r="M143">
         <v>2452.5472608</v>
@@ -6608,7 +6608,7 @@
         <v>114</v>
       </c>
       <c r="G144">
-        <v>15940460664717</v>
+        <v>15942612524007</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>14.247</v>
       </c>
       <c r="L144">
-        <v>15940461914756</v>
+        <v>15942613865982</v>
       </c>
       <c r="M144">
         <v>2452.7841792</v>
@@ -6649,7 +6649,7 @@
         <v>114</v>
       </c>
       <c r="G145">
-        <v>15940460664718</v>
+        <v>15942612524008</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>16.528</v>
       </c>
       <c r="L145">
-        <v>15940461914759</v>
+        <v>15942613865985</v>
       </c>
       <c r="M145">
         <v>1249.536456</v>
@@ -6690,7 +6690,7 @@
         <v>114</v>
       </c>
       <c r="G146">
-        <v>15940460664719</v>
+        <v>15942612524009</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -6705,7 +6705,7 @@
         <v>16.508</v>
       </c>
       <c r="L146">
-        <v>15940461914762</v>
+        <v>15942613865988</v>
       </c>
       <c r="M146">
         <v>1249.34436</v>
@@ -6731,7 +6731,7 @@
         <v>114</v>
       </c>
       <c r="G147">
-        <v>15940460664720</v>
+        <v>15942612524010</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>16.508</v>
       </c>
       <c r="L147">
-        <v>15940461914764</v>
+        <v>15942613865990</v>
       </c>
       <c r="M147">
         <v>637.87878</v>
@@ -6772,7 +6772,7 @@
         <v>114</v>
       </c>
       <c r="G148">
-        <v>15940460664721</v>
+        <v>15942612524011</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>16.468</v>
       </c>
       <c r="L148">
-        <v>15940461914766</v>
+        <v>15942613865992</v>
       </c>
       <c r="M148">
         <v>637.6498656000001</v>
@@ -6813,7 +6813,7 @@
         <v>114</v>
       </c>
       <c r="G149">
-        <v>15940460664722</v>
+        <v>15942612524012</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -6828,7 +6828,7 @@
         <v>16.768</v>
       </c>
       <c r="L149">
-        <v>15940461914768</v>
+        <v>15942613865994</v>
       </c>
       <c r="M149">
         <v>324.6358368</v>
@@ -6854,7 +6854,7 @@
         <v>114</v>
       </c>
       <c r="G150">
-        <v>15940460664723</v>
+        <v>15942612524013</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -6869,7 +6869,7 @@
         <v>21.761</v>
       </c>
       <c r="L150">
-        <v>15940461914771</v>
+        <v>15942613865997</v>
       </c>
       <c r="M150">
         <v>323.80182</v>
@@ -6895,7 +6895,7 @@
         <v>115</v>
       </c>
       <c r="G151">
-        <v>15940460664724</v>
+        <v>15942612524014</v>
       </c>
       <c r="H151">
         <v>6360630.524784498</v>
@@ -6910,7 +6910,7 @@
         <v>16.322</v>
       </c>
       <c r="L151">
-        <v>15940461914772</v>
+        <v>15942613865998</v>
       </c>
       <c r="M151">
         <v>11449134.9446121</v>
@@ -6936,7 +6936,7 @@
         <v>115</v>
       </c>
       <c r="G152">
-        <v>15940460664725</v>
+        <v>15942612524015</v>
       </c>
       <c r="H152">
         <v>8580040.471181251</v>
@@ -6951,7 +6951,7 @@
         <v>21.679</v>
       </c>
       <c r="L152">
-        <v>15940461914773</v>
+        <v>15942613865999</v>
       </c>
       <c r="M152">
         <v>15444072.84812625</v>
@@ -6977,7 +6977,7 @@
         <v>114</v>
       </c>
       <c r="G153">
-        <v>15940460664726</v>
+        <v>15942612524016</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>15.588</v>
       </c>
       <c r="L153">
-        <v>15940461915400</v>
+        <v>15942613866626</v>
       </c>
       <c r="M153">
         <v>974129.6310048001</v>
@@ -7018,7 +7018,7 @@
         <v>114</v>
       </c>
       <c r="G154">
-        <v>15940460664727</v>
+        <v>15942612524017</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>17.549</v>
       </c>
       <c r="L154">
-        <v>15940461915957</v>
+        <v>15942613867183</v>
       </c>
       <c r="M154">
         <v>974129.4148967999</v>
@@ -7059,7 +7059,7 @@
         <v>114</v>
       </c>
       <c r="G155">
-        <v>15940460664728</v>
+        <v>15942612524018</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>17.469</v>
       </c>
       <c r="L155">
-        <v>15940461917358</v>
+        <v>15942613868584</v>
       </c>
       <c r="M155">
         <v>2444828.4209088</v>
@@ -7100,7 +7100,7 @@
         <v>114</v>
       </c>
       <c r="G156">
-        <v>15940460664729</v>
+        <v>15942612524019</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>15.238</v>
       </c>
       <c r="L156">
-        <v>15940461918965</v>
+        <v>15942613870191</v>
       </c>
       <c r="M156">
         <v>2444827.7853912</v>
